--- a/script/Pr_temp_spreadsheets/05_01_CIEL05_1DASH.xlsx
+++ b/script/Pr_temp_spreadsheets/05_01_CIEL05_1DASH.xlsx
@@ -72,7 +72,7 @@
     <t>　その流れの中の一つに、見慣れた大きな百貨店がある。</t>
   </si>
   <si>
-    <t>In the middle of it, is the large department store that I'm familiar with.</t>
+    <t>In the middle of it, is a large department store that I'm familiar with.</t>
   </si>
   <si>
     <t>&lt;Page4&gt;</t>
@@ -132,7 +132,7 @@
     <t>「そういえば……有彦のヤツ、北口でおかしな話があるって言ってたな……」</t>
   </si>
   <si>
-    <t>"Come to think of it... Arihiko did say that strange stuff was happening around the north gate.</t>
+    <t>"Come to think of it... Arihiko did say that strange stuff was happening around the north gate..."</t>
   </si>
   <si>
     <t>&lt;Page8&gt;</t>
@@ -153,7 +153,7 @@
     <t>　それが&lt;廃|すた&gt;れず、それでいて派手に広まらず、ネット上でいつまでも生き続けてきたのは、それがまったくの嘘ではないからなのか。</t>
   </si>
   <si>
-    <t xml:space="preserve">If it persisted on the internet, neither disappearing nor flamboyantly spreading, it may be because it's not a lie at all. </t>
+    <t>If it persisted on the internet, neither disappearing nor flamboyantly spreading, it may be because it's not totally a lie.</t>
   </si>
   <si>
     <t>&lt;Page9&gt;</t>
@@ -213,7 +213,7 @@
     <t>「……七階から&lt;上|うえ&gt;がない。このデパートの大きさから考えれば、十階ぐらいはあるはずなのに……」</t>
   </si>
   <si>
-    <t>"There isn't anything above the seventh floor. Considering the size of this department store, it should have at least ten floors..."</t>
+    <t>"...There isn't anything above the seventh floor. Considering the size of this department store, it should have at least ten floors..."</t>
   </si>
   <si>
     <t>&lt;Page13&gt;</t>
@@ -222,7 +222,7 @@
     <t>　エレベーターは七階までのボタンしかないし、階段は七階に立ち入り禁止の立て札が置かれていた。</t>
   </si>
   <si>
-    <t>The elevator only has buttons to go up to the seventh floor, and the stairs had a sign saying that the seventh floor was off-limits.//Seventh or eighth?</t>
+    <t>The elevator only has buttons to go up to the seventh floor, and the stairs has a sign saying that the seventh floor is off-limits.//Seventh or eighth?</t>
   </si>
   <si>
     <t>&lt;Page14&gt;</t>
@@ -231,7 +231,7 @@
     <t>　人がいない時を狙って、立ち入り禁止のロープをくぐって階段を上る。</t>
   </si>
   <si>
-    <t>Aiming for a time when no one is around, I climb the stairs through the no-entry rope.</t>
+    <t>Aiming for a moment when no one is around, I climb the stairs through the no-entry rope.</t>
   </si>
   <si>
     <t>　階段は上階まで続いているものの、そこで行き止まりだった。</t>
@@ -249,7 +249,7 @@
     <t>　その隣りには鍵のかかった非常扉が一つ。</t>
   </si>
   <si>
-    <t>Next to it, there was a locked emergency door.</t>
+    <t>Next to it, there is a locked emergency door.</t>
   </si>
   <si>
     <t>&lt;Page15&gt;</t>
@@ -258,7 +258,7 @@
     <t>「……何かあるとしたら、この向こうか……」</t>
   </si>
   <si>
-    <t>"...If there's anything here, it's that way..."</t>
+    <t>"...If there's anything here, it's this way..."</t>
   </si>
   <si>
     <t>　中に入るか、ここで戻るかを思案する。</t>
@@ -378,13 +378,13 @@
     <t>　電灯が消えているのだから当然と言えば当然だが、それでも予想外すぎた。</t>
   </si>
   <si>
-    <t xml:space="preserve">It's only natural considering that the lights are off, but it's still very unexpected. </t>
+    <t>It's only natural considering that the lights are off, but it's still very unexpected.</t>
   </si>
   <si>
     <t>　今は日中だ。たとえ電気が通っていなくとも、窓からの陽差しで明るくなくてはいけない。</t>
   </si>
   <si>
-    <t>This is daytime. Even if the power is off, the floor should still be bright from the sunlight coming through the windows.</t>
+    <t>It is daytime. Even if the power is off, the floor should still be bright from the sunlight coming through the windows.</t>
   </si>
   <si>
     <t>&lt;Page22&gt;</t>
@@ -429,7 +429,7 @@
     <t>　外からの侵入者を阻んでいるのではなく、内からの脱走者を出さない作り……としか思えない。</t>
   </si>
   <si>
-    <t>I can only see it as a move to prevent someone inside from escaping, rather than to keep intruders from entering.</t>
+    <t>I can only see it as a move to prevent someone inside from escaping... rather than to keep intruders from entering.</t>
   </si>
   <si>
     <t>&lt;Page25&gt;</t>
@@ -438,7 +438,7 @@
     <t>　それとも―――そんなのは考えすぎで、これは単なる&lt;日|・&gt;&lt;除|・&gt;&lt;け|・&gt;なのか。</t>
   </si>
   <si>
-    <t>Or―――am I just overthinking and this is just a sunshade?//Sunshade in italics</t>
+    <t>Or―――am I just overthinking and this is just a sunshade?//Sunshade in italics, ruby dots &lt;日|・&gt;&lt;除|・&gt;&lt;け|・&gt;</t>
   </si>
   <si>
     <t>　だとしても……</t>
@@ -453,7 +453,7 @@
     <t>「……綺麗すぎないか、ここ……？」</t>
   </si>
   <si>
-    <t>"Isn't this place... too clean?"</t>
+    <t>"...Isn't this place... too clean?"</t>
   </si>
   <si>
     <t>　廊下にはいたるところに埃が積もっていたのに、異臭もせず、おかしな物体も見当たらない。</t>
@@ -648,7 +648,7 @@
     <t>　それをこの二人組に&lt;確|・&gt;&lt;認|・&gt;&lt;し|・&gt;&lt;て|・&gt;いいのか。</t>
   </si>
   <si>
-    <t>Can I check that with these two guys?</t>
+    <t>Can I check that with these two guys?//ruby dots &lt;確|・&gt;&lt;認|・&gt;&lt;し|・&gt;&lt;て|・&gt;</t>
   </si>
   <si>
     <t>&lt;Page38&gt;</t>
@@ -678,7 +678,7 @@
     <t>　で、どうなのオタク。ただの物好きなワケ？」</t>
   </si>
   <si>
-    <t>So, what is it going to be, nerd? Is it just on a whim?"</t>
+    <t>So what is it going to be, nerd? Was it just on a whim?"</t>
   </si>
   <si>
     <t>&lt;Page40&gt;</t>
@@ -702,7 +702,7 @@
     <t>「……すみません。ここで、アルバイトができると聞いたんですけど……」</t>
   </si>
   <si>
-    <t>"I'm sorry. I heard that you can get a part-time job here..."</t>
+    <t>"...I'm sorry. I heard that you can get a part-time job here..."</t>
   </si>
   <si>
     <t>　自信なさげな声音で、トシと呼ばれた男の顔色を窺った。</t>
@@ -1179,7 +1179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{cb61ede4-b539-4ac2-9b25-599fcb6eaf16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87e26ca0-e2e9-40cc-a5a8-ec8bbfcdb9a4}">
   <dimension ref="A1:B141"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -2325,7 +2325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{c01cb5d6-d931-43ae-bb63-5f9222d6a671}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268f5cb9-5cec-47be-a018-b64b6c129c67}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
